--- a/hw8/articles_topicized_group_3.xlsx
+++ b/hw8/articles_topicized_group_3.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cleaned_0202_food</t>
+          <t>cleaned_0206_food</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cleaned_0206_food</t>
+          <t>cleaned_0305_science</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cleaned_0204_food</t>
+          <t>cleaned_0202_food</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cleaned_science_0401</t>
+          <t>cleaned_9904_science</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cleaned_0207_food</t>
+          <t>cleaned_0204_food</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cleaned_science_0402</t>
+          <t>cleaned_science_0401</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cleaned_0208_food</t>
+          <t>cleaned_0207_food</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cleaned_science_0403</t>
+          <t>cleaned_science_0402</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cleaned_0211_food</t>
+          <t>cleaned_0208_food</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cleaned_science_0404</t>
+          <t>cleaned_science_0403</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cleaned_0217_food</t>
+          <t>cleaned_0211_food</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cleaned_science_0406</t>
+          <t>cleaned_science_0404</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cleaned_0218_food</t>
+          <t>cleaned_0217_food</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cleaned_science_0407</t>
+          <t>cleaned_science_0405</t>
         </is>
       </c>
     </row>
@@ -728,12 +728,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cleaned_0219_food</t>
+          <t>cleaned_0218_food</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cleaned_science_0408</t>
+          <t>cleaned_science_0406</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cleaned_0306_tech</t>
+          <t>cleaned_0219_food</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cleaned_science_0410</t>
+          <t>cleaned_science_0407</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cleaned_0507_business</t>
+          <t>cleaned_0306_tech</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cleaned_science_0411</t>
+          <t>cleaned_science_0408</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cleaned_0506_business</t>
+          <t>cleaned_0508_business</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cleaned_9902_food</t>
+          <t>cleaned_0507_business</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cleaned_science_0412</t>
+          <t>cleaned_science_0410</t>
         </is>
       </c>
     </row>
@@ -815,13 +815,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cleaned_0508_business</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>cleaned_0509_business</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cleaned_9902_food</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cleaned_science_0413</t>
+          <t>cleaned_science_0411</t>
         </is>
       </c>
     </row>
@@ -834,13 +838,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cleaned_0509_business</t>
+          <t>cleaned_0514_business</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cleaned_science_0415</t>
+          <t>cleaned_science_0412</t>
         </is>
       </c>
     </row>
@@ -853,11 +857,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cleaned_0511_business</t>
+          <t>cleaned_0517_business</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cleaned_science_0413</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -868,11 +876,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cleaned_0514_business</t>
+          <t>cleaned_tech_0401</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cleaned_science_0414</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -883,11 +895,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cleaned_0516_business</t>
+          <t>cleaned_tech_0402</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cleaned_science_0415</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -898,7 +914,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cleaned_0517_business</t>
+          <t>cleaned_tech_0403</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -913,7 +929,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cleaned_0518_business</t>
+          <t>cleaned_tech_0404</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -926,11 +942,7 @@
           <t>cleaned_0220_sports</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>cleaned_tech_0401</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -941,11 +953,7 @@
           <t>cleaned_0301_tech</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>cleaned_tech_0402</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -956,11 +964,7 @@
           <t>cleaned_0302_tech</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cleaned_tech_0403</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -971,11 +975,7 @@
           <t>cleaned_0304_tech</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>cleaned_tech_0404</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -983,7 +983,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cleaned_0305_science</t>
+          <t>cleaned_0308_tech</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -994,7 +994,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cleaned_0308_tech</t>
+          <t>cleaned_0309_tech</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cleaned_0309_tech</t>
+          <t>cleaned_0318_tech</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cleaned_0318_tech</t>
+          <t>cleaned_0504_business</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1027,7 +1027,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cleaned_0504_business</t>
+          <t>cleaned_0505_politics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cleaned_0505_politics</t>
+          <t>cleaned_0506_business</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1060,7 +1060,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cleaned_0513_business</t>
+          <t>cleaned_0511_business</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cleaned_0515_politics</t>
+          <t>cleaned_0513_business</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cleaned_0519_business</t>
+          <t>cleaned_0515_politics</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cleaned_0520_politics</t>
+          <t>cleaned_0516_business</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1104,7 +1104,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cleaned_9901_sports</t>
+          <t>cleaned_0518_business</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cleaned_9903_tech</t>
+          <t>cleaned_0519_business</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cleaned_9904_science</t>
+          <t>cleaned_0520_politics</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1137,7 +1137,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cleaned_9905_business</t>
+          <t>cleaned_9901_sports</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cleaned_9906_politics</t>
+          <t>cleaned_9903_tech</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cleaned_science_0405</t>
+          <t>cleaned_9905_business</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cleaned_science_0409</t>
+          <t>cleaned_9906_politics</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cleaned_science_0414</t>
+          <t>cleaned_science_0409</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
